--- a/results/RU.xlsx
+++ b/results/RU.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="20" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="21" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,32 +554,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13.1%</t>
+          <t>13.9%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -649,32 +650,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.4%</t>
+          <t>35.6%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18.3%</t>
+          <t>18.1%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,32 +746,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>10.2%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>21.2%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>31.9%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>20.8%</t>
+          <t>20.3%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>11.6%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -841,7 +842,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -851,32 +852,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24.4%</t>
+          <t>24.9%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17.0%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -937,17 +938,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -957,22 +958,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>28.9%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>36.9%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1033,37 +1034,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.7%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>21.7%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>31.1%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>30.1%</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>31.9%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3.5%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1144,7 +1145,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1159,17 +1160,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>52.4%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>30.3%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1179,7 +1180,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1250,27 +1251,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>33.4%</t>
+          <t>33.6%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>48.9%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11.6%</t>
+          <t>11.8%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1351,27 +1352,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>15.2%</t>
+          <t>14.9%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>48.7%</t>
+          <t>49.8%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1381,12 +1382,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1452,47 +1453,47 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11.0%</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>25.6%</t>
+          <t>26.0%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>22.3%</t>
+          <t>21.3%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>16.2%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>12.0%</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1559,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>11.6%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>16.6%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1573,22 +1574,22 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>20.2%</t>
+          <t>19.2%</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>15.6%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>10.2%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
     </row>
@@ -1639,47 +1640,47 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>9.2%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>20.6%</t>
+          <t>20.4%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>21.7%</t>
+          <t>22.3%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>18.0%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>14.0%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1735,7 +1736,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1745,42 +1746,42 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>13.5%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19.6%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>21.3%</t>
+          <t>20.2%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>12.8%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
     </row>
@@ -1831,47 +1832,47 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13.0%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>16.1%</t>
+          <t>16.6%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>21.0%</t>
+          <t>20.9%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1932,47 +1933,47 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13.1%</t>
+          <t>13.7%</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>20.3%</t>
+          <t>20.8%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>37.9%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>13.4%</t>
+          <t>12.9%</t>
         </is>
       </c>
     </row>
@@ -2048,27 +2049,27 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>14.0%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>79.8%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -3732,4 +3733,1661 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Matches</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 11</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 12</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 13</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 14</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 15</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Pos 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>КРА</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>26.8%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ЗЕН</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25.5%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10.1%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>СПА</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17.3%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>28.7%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>30.2%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13.9%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ЛОК</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>27.8%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>29.0%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ДМС</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.1%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>33.1%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ЦСК</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24.7%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>РУБ</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>49.6%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>42.8%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>РОС</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>42.3%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>АКР</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>21</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>11.3%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>51.6%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>19.3%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>9.1%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ДМХ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>11.9%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>22.4%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>21.2%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>18.1%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>13.3%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ХИМ</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>9.0%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>19.1%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>20.8%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>18.9%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>16.3%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>10.8%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>КРЫ</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>17.6%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>19.7%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>19.1%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>17.6%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>12.3%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ПНН</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10.6%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>17.7%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>19.5%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>АХМ</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11.0%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>15.6%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>19.5%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>24.2%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>15.4%</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ФКЛ</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>5.3%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>9.7%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>18.7%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>39.1%</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ОРЕ</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>22.1%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>67.8%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>